--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value417.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value417.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160444806849642</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.850825640821912</v>
+        <v>3.43013596534729</v>
       </c>
       <c r="C1">
-        <v>2.906783959195262</v>
+        <v>1.90750777721405</v>
       </c>
       <c r="D1">
-        <v>2.28806765702371</v>
+        <v>1.44348156452179</v>
       </c>
       <c r="E1">
-        <v>0.6174615697061457</v>
+        <v>1.282873749732971</v>
       </c>
     </row>
   </sheetData>
